--- a/data_classification.xlsx
+++ b/data_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khanh\ai\linear regression code\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7CFDB-E122-42E3-B36C-07EBBC47A791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A1811-CE77-4820-95E4-1D8B1E874531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="2568" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6192" yWindow="3564" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>feature1</t>
+  </si>
+  <si>
+    <t>feature2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,42 +351,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>4.8550639999999996</v>
-      </c>
-      <c r="B1">
-        <v>9.6399620000000006</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8.6254399999999993</v>
+        <v>4.8550639999999996</v>
       </c>
       <c r="B2">
-        <v>5.8927E-2</v>
+        <v>9.6399620000000006</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3.828192</v>
+        <v>8.6254399999999993</v>
       </c>
       <c r="B3">
-        <v>0.72319900000000004</v>
+        <v>5.8927E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -380,21 +394,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7.1509549999999997</v>
+        <v>3.828192</v>
       </c>
       <c r="B4">
-        <v>3.8994200000000001</v>
+        <v>0.72319900000000004</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6.4779</v>
+        <v>7.1509549999999997</v>
       </c>
       <c r="B5">
-        <v>8.1981809999999999</v>
+        <v>3.8994200000000001</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -402,32 +416,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1.9222699999999999</v>
+        <v>6.4779</v>
       </c>
       <c r="B6">
-        <v>1.3314269999999999</v>
+        <v>8.1981809999999999</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8.9782159999999998</v>
+        <v>1.9222699999999999</v>
       </c>
       <c r="B7">
-        <v>0.99343800000000004</v>
+        <v>1.3314269999999999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6.6356029999999997</v>
+        <v>8.9782159999999998</v>
       </c>
       <c r="B8">
-        <v>8.5428029999999993</v>
+        <v>0.99343800000000004</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -435,10 +449,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7.6723590000000002</v>
+        <v>6.6356029999999997</v>
       </c>
       <c r="B9">
-        <v>5.4164000000000003</v>
+        <v>8.5428029999999993</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -446,32 +460,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4.866015</v>
+        <v>7.6723590000000002</v>
       </c>
       <c r="B10">
-        <v>2.0426709999999999</v>
+        <v>5.4164000000000003</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6.8614050000000004</v>
+        <v>4.866015</v>
       </c>
       <c r="B11">
-        <v>9.6553100000000001</v>
+        <v>2.0426709999999999</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8.5404210000000003</v>
+        <v>6.8614050000000004</v>
       </c>
       <c r="B12">
-        <v>2.5903740000000002</v>
+        <v>9.6553100000000001</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -479,54 +493,54 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3.7178810000000002</v>
+        <v>8.5404210000000003</v>
       </c>
       <c r="B13">
-        <v>5.3816620000000004</v>
+        <v>2.5903740000000002</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9.1812970000000007</v>
+        <v>3.7178810000000002</v>
       </c>
       <c r="B14">
-        <v>0.17147499999999999</v>
+        <v>5.3816620000000004</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>9.5601400000000005</v>
+        <v>9.1812970000000007</v>
       </c>
       <c r="B15">
-        <v>2.4945999999999999E-2</v>
+        <v>0.17147499999999999</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5.9713690000000001</v>
+        <v>9.5601400000000005</v>
       </c>
       <c r="B16">
-        <v>4.1883020000000002</v>
+        <v>2.4945999999999999E-2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>9.4382029999999997</v>
+        <v>5.9713690000000001</v>
       </c>
       <c r="B17">
-        <v>1.9438120000000001</v>
+        <v>4.1883020000000002</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -534,10 +548,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4.357551</v>
+        <v>9.4382029999999997</v>
       </c>
       <c r="B18">
-        <v>9.8879830000000002</v>
+        <v>1.9438120000000001</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -545,10 +559,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4.5403320000000003</v>
+        <v>4.357551</v>
       </c>
       <c r="B19">
-        <v>6.7138730000000004</v>
+        <v>9.8879830000000002</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -556,32 +570,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1.549102</v>
+        <v>4.5403320000000003</v>
       </c>
       <c r="B20">
-        <v>9.3751320000000007</v>
+        <v>6.7138730000000004</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>8.0819740000000007</v>
+        <v>1.549102</v>
       </c>
       <c r="B21">
-        <v>9.8422070000000001</v>
+        <v>9.3751320000000007</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>9.6204649999999994</v>
+        <v>8.0819740000000007</v>
       </c>
       <c r="B22">
-        <v>2.0993279999999999</v>
+        <v>9.8422070000000001</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -589,16 +603,28 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>9.6204649999999994</v>
+      </c>
+      <c r="B23">
+        <v>2.0993279999999999</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>8.8347709999999999</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>3.1522039999999998</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>